--- a/VersionRecords/Version 5.3.0.1 20170222/版本Bug和特性计划及评审表v5.3.0_架构组.xlsx
+++ b/VersionRecords/Version 5.3.0.1 20170222/版本Bug和特性计划及评审表v5.3.0_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="5220" tabRatio="764"/>
@@ -24,8 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:J16"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -313,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -955,7 +954,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1313,11 +1312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,7 +1344,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="34" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:24" s="34" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -1462,13 +1461,15 @@
       <c r="S2" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
+      <c r="T2" s="50">
+        <v>9226</v>
+      </c>
       <c r="U2" s="50"/>
       <c r="V2" s="58"/>
       <c r="W2" s="62"/>
       <c r="X2" s="61"/>
     </row>
-    <row r="3" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -1522,13 +1523,15 @@
       <c r="S3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="50"/>
+      <c r="T3" s="50">
+        <v>9227</v>
+      </c>
       <c r="U3" s="50"/>
       <c r="V3" s="58"/>
       <c r="W3" s="62"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -1554,7 +1557,7 @@
       <c r="W4" s="62"/>
       <c r="X4" s="61"/>
     </row>
-    <row r="5" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -1580,7 +1583,7 @@
       <c r="W5" s="62"/>
       <c r="X5" s="61"/>
     </row>
-    <row r="6" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1606,7 +1609,7 @@
       <c r="W6" s="62"/>
       <c r="X6" s="61"/>
     </row>
-    <row r="7" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1632,7 +1635,7 @@
       <c r="W7" s="62"/>
       <c r="X7" s="61"/>
     </row>
-    <row r="8" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -1658,7 +1661,7 @@
       <c r="W8" s="62"/>
       <c r="X8" s="61"/>
     </row>
-    <row r="9" spans="1:16384" s="35" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -1684,7 +1687,7 @@
       <c r="W9" s="63"/>
       <c r="X9" s="61"/>
     </row>
-    <row r="10" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" ht="16.5">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -1708,9 +1711,8 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="51"/>
-      <c r="X10"/>
-    </row>
-    <row r="11" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="11" spans="1:24" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -1734,9 +1736,8 @@
       <c r="U11" s="50"/>
       <c r="V11" s="50"/>
       <c r="W11" s="51"/>
-      <c r="X11"/>
-    </row>
-    <row r="12" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="12" spans="1:24" ht="16.5">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -1760,9 +1761,8 @@
       <c r="U12" s="50"/>
       <c r="V12" s="50"/>
       <c r="W12" s="51"/>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="13" spans="1:24" ht="16.5">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -1786,9 +1786,8 @@
       <c r="U13" s="50"/>
       <c r="V13" s="50"/>
       <c r="W13" s="62"/>
-      <c r="X13"/>
-    </row>
-    <row r="14" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -1812,9 +1811,8 @@
       <c r="U14" s="50"/>
       <c r="V14" s="50"/>
       <c r="W14" s="62"/>
-      <c r="X14"/>
-    </row>
-    <row r="15" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -1838,9 +1836,8 @@
       <c r="U15" s="50"/>
       <c r="V15" s="50"/>
       <c r="W15" s="62"/>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -1864,9 +1861,8 @@
       <c r="U16" s="64"/>
       <c r="V16" s="64"/>
       <c r="W16" s="65"/>
-      <c r="X16"/>
-    </row>
-    <row r="17" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -1890,9 +1886,8 @@
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
       <c r="W17" s="65"/>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -1916,9 +1911,8 @@
       <c r="U18" s="66"/>
       <c r="V18" s="67"/>
       <c r="W18" s="65"/>
-      <c r="X18"/>
-    </row>
-    <row r="19" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -1942,9 +1936,8 @@
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
       <c r="W19" s="65"/>
-      <c r="X19"/>
-    </row>
-    <row r="20" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -1968,9 +1961,8 @@
       <c r="U20" s="66"/>
       <c r="V20" s="66"/>
       <c r="W20" s="65"/>
-      <c r="X20"/>
-    </row>
-    <row r="21" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -1994,9 +1986,8 @@
       <c r="U21" s="68"/>
       <c r="V21" s="68"/>
       <c r="W21" s="53"/>
-      <c r="X21"/>
-    </row>
-    <row r="22" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -2020,9 +2011,8 @@
       <c r="U22" s="50"/>
       <c r="V22" s="50"/>
       <c r="W22" s="62"/>
-      <c r="X22"/>
-    </row>
-    <row r="23" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -2046,9 +2036,8 @@
       <c r="U23" s="50"/>
       <c r="V23" s="50"/>
       <c r="W23" s="62"/>
-      <c r="X23"/>
-    </row>
-    <row r="24" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -2072,9 +2061,8 @@
       <c r="U24" s="50"/>
       <c r="V24" s="50"/>
       <c r="W24" s="62"/>
-      <c r="X24"/>
-    </row>
-    <row r="25" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -2098,9 +2086,8 @@
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
       <c r="W25" s="65"/>
-      <c r="X25"/>
-    </row>
-    <row r="26" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -2124,9 +2111,8 @@
       <c r="U26" s="50"/>
       <c r="V26" s="50"/>
       <c r="W26" s="60"/>
-      <c r="X26"/>
-    </row>
-    <row r="27" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -2150,9 +2136,8 @@
       <c r="U27" s="50"/>
       <c r="V27" s="50"/>
       <c r="W27" s="62"/>
-      <c r="X27"/>
-    </row>
-    <row r="28" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -2176,9 +2161,8 @@
       <c r="U28" s="50"/>
       <c r="V28" s="50"/>
       <c r="W28" s="62"/>
-      <c r="X28"/>
-    </row>
-    <row r="29" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -2202,9 +2186,8 @@
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
       <c r="W29" s="62"/>
-      <c r="X29"/>
-    </row>
-    <row r="30" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -2228,9 +2211,8 @@
       <c r="U30" s="50"/>
       <c r="V30" s="50"/>
       <c r="W30" s="62"/>
-      <c r="X30"/>
-    </row>
-    <row r="31" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -2254,9 +2236,8 @@
       <c r="U31" s="50"/>
       <c r="V31" s="50"/>
       <c r="W31" s="62"/>
-      <c r="X31"/>
-    </row>
-    <row r="32" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -2280,9 +2261,8 @@
       <c r="U32" s="50"/>
       <c r="V32" s="50"/>
       <c r="W32" s="62"/>
-      <c r="X32"/>
-    </row>
-    <row r="33" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2306,9 +2286,8 @@
       <c r="U33" s="50"/>
       <c r="V33" s="50"/>
       <c r="W33" s="62"/>
-      <c r="X33"/>
-    </row>
-    <row r="34" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2332,9 +2311,8 @@
       <c r="U34" s="50"/>
       <c r="V34" s="50"/>
       <c r="W34" s="62"/>
-      <c r="X34"/>
-    </row>
-    <row r="35" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2358,9 +2336,8 @@
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
       <c r="W35" s="62"/>
-      <c r="X35"/>
-    </row>
-    <row r="36" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2384,9 +2361,8 @@
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
       <c r="W36" s="62"/>
-      <c r="X36"/>
-    </row>
-    <row r="37" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2410,9 +2386,8 @@
       <c r="U37" s="68"/>
       <c r="V37" s="68"/>
       <c r="W37" s="62"/>
-      <c r="X37"/>
-    </row>
-    <row r="38" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -2436,9 +2411,8 @@
       <c r="U38" s="68"/>
       <c r="V38" s="68"/>
       <c r="W38" s="62"/>
-      <c r="X38"/>
-    </row>
-    <row r="39" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -2462,9 +2436,8 @@
       <c r="U39" s="50"/>
       <c r="V39" s="50"/>
       <c r="W39" s="51"/>
-      <c r="X39"/>
-    </row>
-    <row r="40" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -2488,9 +2461,8 @@
       <c r="U40" s="50"/>
       <c r="V40" s="50"/>
       <c r="W40" s="51"/>
-      <c r="X40"/>
-    </row>
-    <row r="41" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -2514,9 +2486,8 @@
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
       <c r="W41" s="51"/>
-      <c r="X41"/>
-    </row>
-    <row r="42" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -2540,9 +2511,8 @@
       <c r="U42" s="50"/>
       <c r="V42" s="50"/>
       <c r="W42" s="51"/>
-      <c r="X42"/>
-    </row>
-    <row r="43" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -2566,9 +2536,8 @@
       <c r="U43" s="50"/>
       <c r="V43" s="50"/>
       <c r="W43" s="51"/>
-      <c r="X43"/>
-    </row>
-    <row r="44" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -2592,9 +2561,8 @@
       <c r="U44" s="50"/>
       <c r="V44" s="50"/>
       <c r="W44" s="51"/>
-      <c r="X44"/>
-    </row>
-    <row r="45" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -2618,9 +2586,8 @@
       <c r="U45" s="50"/>
       <c r="V45" s="50"/>
       <c r="W45" s="51"/>
-      <c r="X45"/>
-    </row>
-    <row r="46" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
@@ -2644,9 +2611,8 @@
       <c r="U46" s="50"/>
       <c r="V46" s="50"/>
       <c r="W46" s="51"/>
-      <c r="X46"/>
-    </row>
-    <row r="47" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -2670,9 +2636,8 @@
       <c r="U47" s="50"/>
       <c r="V47" s="50"/>
       <c r="W47" s="51"/>
-      <c r="X47"/>
-    </row>
-    <row r="48" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -2696,9 +2661,8 @@
       <c r="U48" s="50"/>
       <c r="V48" s="50"/>
       <c r="W48" s="51"/>
-      <c r="X48"/>
-    </row>
-    <row r="49" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -2722,9 +2686,8 @@
       <c r="U49" s="50"/>
       <c r="V49" s="50"/>
       <c r="W49" s="51"/>
-      <c r="X49"/>
-    </row>
-    <row r="50" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="50"/>
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
@@ -2748,9 +2711,8 @@
       <c r="U50" s="50"/>
       <c r="V50" s="50"/>
       <c r="W50" s="51"/>
-      <c r="X50"/>
-    </row>
-    <row r="51" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -2774,9 +2736,8 @@
       <c r="U51" s="50"/>
       <c r="V51" s="50"/>
       <c r="W51" s="51"/>
-      <c r="X51"/>
-    </row>
-    <row r="52" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -2800,9 +2761,8 @@
       <c r="U52" s="50"/>
       <c r="V52" s="50"/>
       <c r="W52" s="51"/>
-      <c r="X52"/>
-    </row>
-    <row r="53" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
@@ -2826,9 +2786,8 @@
       <c r="U53" s="50"/>
       <c r="V53" s="50"/>
       <c r="W53" s="51"/>
-      <c r="X53"/>
-    </row>
-    <row r="54" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="50"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
@@ -2852,9 +2811,8 @@
       <c r="U54" s="50"/>
       <c r="V54" s="50"/>
       <c r="W54" s="51"/>
-      <c r="X54"/>
-    </row>
-    <row r="55" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
@@ -2878,9 +2836,8 @@
       <c r="U55" s="50"/>
       <c r="V55" s="50"/>
       <c r="W55" s="51"/>
-      <c r="X55"/>
-    </row>
-    <row r="56" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -2904,9 +2861,8 @@
       <c r="U56" s="50"/>
       <c r="V56" s="50"/>
       <c r="W56" s="51"/>
-      <c r="X56"/>
-    </row>
-    <row r="57" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
@@ -2930,9 +2886,8 @@
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="51"/>
-      <c r="X57"/>
-    </row>
-    <row r="58" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="50"/>
@@ -2956,9 +2911,8 @@
       <c r="U58" s="50"/>
       <c r="V58" s="50"/>
       <c r="W58" s="51"/>
-      <c r="X58"/>
-    </row>
-    <row r="59" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
@@ -2982,9 +2936,8 @@
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="51"/>
-      <c r="X59"/>
-    </row>
-    <row r="60" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="50"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50"/>
@@ -3008,9 +2961,8 @@
       <c r="U60" s="50"/>
       <c r="V60" s="50"/>
       <c r="W60" s="51"/>
-      <c r="X60"/>
-    </row>
-    <row r="61" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
@@ -3034,9 +2986,8 @@
       <c r="U61" s="50"/>
       <c r="V61" s="50"/>
       <c r="W61" s="51"/>
-      <c r="X61"/>
-    </row>
-    <row r="62" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="50"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50"/>
@@ -3060,9 +3011,8 @@
       <c r="U62" s="50"/>
       <c r="V62" s="50"/>
       <c r="W62" s="51"/>
-      <c r="X62"/>
-    </row>
-    <row r="63" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="50"/>
       <c r="B63" s="50"/>
       <c r="C63" s="50"/>
@@ -3086,9 +3036,8 @@
       <c r="U63" s="50"/>
       <c r="V63" s="50"/>
       <c r="W63" s="51"/>
-      <c r="X63"/>
-    </row>
-    <row r="64" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="50"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50"/>
@@ -3112,9 +3061,8 @@
       <c r="U64" s="50"/>
       <c r="V64" s="50"/>
       <c r="W64" s="51"/>
-      <c r="X64"/>
-    </row>
-    <row r="65" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="50"/>
       <c r="B65" s="50"/>
       <c r="C65" s="50"/>
@@ -3138,9 +3086,8 @@
       <c r="U65" s="50"/>
       <c r="V65" s="50"/>
       <c r="W65" s="51"/>
-      <c r="X65"/>
-    </row>
-    <row r="66" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="50"/>
       <c r="B66" s="50"/>
       <c r="C66" s="50"/>
@@ -3164,9 +3111,8 @@
       <c r="U66" s="50"/>
       <c r="V66" s="50"/>
       <c r="W66" s="51"/>
-      <c r="X66"/>
-    </row>
-    <row r="67" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="50"/>
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
@@ -3190,9 +3136,8 @@
       <c r="U67" s="50"/>
       <c r="V67" s="50"/>
       <c r="W67" s="51"/>
-      <c r="X67"/>
-    </row>
-    <row r="68" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="50"/>
       <c r="B68" s="50"/>
       <c r="C68" s="50"/>
@@ -3216,9 +3161,8 @@
       <c r="U68" s="50"/>
       <c r="V68" s="50"/>
       <c r="W68" s="51"/>
-      <c r="X68"/>
-    </row>
-    <row r="69" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="50"/>
       <c r="B69" s="50"/>
       <c r="C69" s="50"/>
@@ -3242,9 +3186,8 @@
       <c r="U69" s="50"/>
       <c r="V69" s="50"/>
       <c r="W69" s="51"/>
-      <c r="X69"/>
-    </row>
-    <row r="70" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="50"/>
       <c r="B70" s="50"/>
       <c r="C70" s="50"/>
@@ -3268,9 +3211,8 @@
       <c r="U70" s="50"/>
       <c r="V70" s="50"/>
       <c r="W70" s="51"/>
-      <c r="X70"/>
-    </row>
-    <row r="71" spans="1:16384" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="50"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
@@ -3294,9 +3236,8 @@
       <c r="U71" s="50"/>
       <c r="V71" s="50"/>
       <c r="W71" s="51"/>
-      <c r="X71"/>
-    </row>
-    <row r="72" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="50"/>
       <c r="B72" s="50"/>
       <c r="C72" s="50"/>
@@ -3320,9 +3261,8 @@
       <c r="U72" s="50"/>
       <c r="V72" s="50"/>
       <c r="W72" s="51"/>
-      <c r="X72"/>
-    </row>
-    <row r="73" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="50"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
@@ -3346,9 +3286,8 @@
       <c r="U73" s="50"/>
       <c r="V73" s="50"/>
       <c r="W73" s="51"/>
-      <c r="X73"/>
-    </row>
-    <row r="74" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="50"/>
       <c r="B74" s="50"/>
       <c r="C74" s="50"/>
@@ -3372,9 +3311,8 @@
       <c r="U74" s="50"/>
       <c r="V74" s="50"/>
       <c r="W74" s="51"/>
-      <c r="X74"/>
-    </row>
-    <row r="75" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="50"/>
       <c r="B75" s="50"/>
       <c r="C75" s="50"/>
@@ -3398,9 +3336,8 @@
       <c r="U75" s="50"/>
       <c r="V75" s="50"/>
       <c r="W75" s="51"/>
-      <c r="X75"/>
-    </row>
-    <row r="76" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="50"/>
       <c r="B76" s="50"/>
       <c r="C76" s="50"/>
@@ -3424,9 +3361,8 @@
       <c r="U76" s="50"/>
       <c r="V76" s="50"/>
       <c r="W76" s="51"/>
-      <c r="X76"/>
-    </row>
-    <row r="77" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="50"/>
       <c r="B77" s="50"/>
       <c r="C77" s="50"/>
@@ -3450,9 +3386,8 @@
       <c r="U77" s="50"/>
       <c r="V77" s="50"/>
       <c r="W77" s="51"/>
-      <c r="X77"/>
-    </row>
-    <row r="78" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="50"/>
       <c r="B78" s="50"/>
       <c r="C78" s="50"/>
@@ -3476,9 +3411,8 @@
       <c r="U78" s="50"/>
       <c r="V78" s="50"/>
       <c r="W78" s="51"/>
-      <c r="X78"/>
-    </row>
-    <row r="79" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="50"/>
       <c r="B79" s="50"/>
       <c r="C79" s="50"/>
@@ -3502,9 +3436,8 @@
       <c r="U79" s="50"/>
       <c r="V79" s="50"/>
       <c r="W79" s="51"/>
-      <c r="X79"/>
-    </row>
-    <row r="80" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="50"/>
       <c r="B80" s="50"/>
       <c r="C80" s="50"/>
@@ -3528,9 +3461,8 @@
       <c r="U80" s="50"/>
       <c r="V80" s="50"/>
       <c r="W80" s="51"/>
-      <c r="X80"/>
-    </row>
-    <row r="81" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="50"/>
       <c r="B81" s="50"/>
       <c r="C81" s="50"/>
@@ -3554,9 +3486,8 @@
       <c r="U81" s="50"/>
       <c r="V81" s="50"/>
       <c r="W81" s="51"/>
-      <c r="X81"/>
-    </row>
-    <row r="82" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="50"/>
       <c r="B82" s="50"/>
       <c r="C82" s="50"/>
@@ -3580,9 +3511,8 @@
       <c r="U82" s="50"/>
       <c r="V82" s="50"/>
       <c r="W82" s="51"/>
-      <c r="X82"/>
-    </row>
-    <row r="83" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="50"/>
       <c r="B83" s="50"/>
       <c r="C83" s="50"/>
@@ -3606,9 +3536,8 @@
       <c r="U83" s="50"/>
       <c r="V83" s="50"/>
       <c r="W83" s="51"/>
-      <c r="X83"/>
-    </row>
-    <row r="84" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="50"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50"/>
@@ -3632,9 +3561,8 @@
       <c r="U84" s="50"/>
       <c r="V84" s="50"/>
       <c r="W84" s="51"/>
-      <c r="X84"/>
-    </row>
-    <row r="85" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="50"/>
       <c r="B85" s="50"/>
       <c r="C85" s="50"/>
@@ -3658,9 +3586,8 @@
       <c r="U85" s="50"/>
       <c r="V85" s="50"/>
       <c r="W85" s="51"/>
-      <c r="X85"/>
-    </row>
-    <row r="86" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="50"/>
       <c r="B86" s="50"/>
       <c r="C86" s="50"/>
@@ -3684,9 +3611,8 @@
       <c r="U86" s="50"/>
       <c r="V86" s="50"/>
       <c r="W86" s="51"/>
-      <c r="X86"/>
-    </row>
-    <row r="87" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="50"/>
       <c r="B87" s="50"/>
       <c r="C87" s="50"/>
@@ -3710,9 +3636,8 @@
       <c r="U87" s="50"/>
       <c r="V87" s="50"/>
       <c r="W87" s="51"/>
-      <c r="X87"/>
-    </row>
-    <row r="88" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="50"/>
       <c r="B88" s="50"/>
       <c r="C88" s="50"/>
@@ -3736,9 +3661,8 @@
       <c r="U88" s="50"/>
       <c r="V88" s="50"/>
       <c r="W88" s="51"/>
-      <c r="X88"/>
-    </row>
-    <row r="89" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="50"/>
       <c r="B89" s="50"/>
       <c r="C89" s="50"/>
@@ -3762,9 +3686,8 @@
       <c r="U89" s="50"/>
       <c r="V89" s="50"/>
       <c r="W89" s="51"/>
-      <c r="X89"/>
-    </row>
-    <row r="90" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="50"/>
       <c r="B90" s="50"/>
       <c r="C90" s="50"/>
@@ -3788,9 +3711,8 @@
       <c r="U90" s="50"/>
       <c r="V90" s="50"/>
       <c r="W90" s="51"/>
-      <c r="X90"/>
-    </row>
-    <row r="91" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="50"/>
       <c r="B91" s="50"/>
       <c r="C91" s="50"/>
@@ -3814,9 +3736,8 @@
       <c r="U91" s="50"/>
       <c r="V91" s="50"/>
       <c r="W91" s="51"/>
-      <c r="X91"/>
-    </row>
-    <row r="92" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="50"/>
       <c r="B92" s="50"/>
       <c r="C92" s="50"/>
@@ -3840,9 +3761,8 @@
       <c r="U92" s="50"/>
       <c r="V92" s="50"/>
       <c r="W92" s="51"/>
-      <c r="X92"/>
-    </row>
-    <row r="93" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="50"/>
       <c r="B93" s="50"/>
       <c r="C93" s="50"/>
@@ -3866,9 +3786,8 @@
       <c r="U93" s="50"/>
       <c r="V93" s="50"/>
       <c r="W93" s="51"/>
-      <c r="X93"/>
-    </row>
-    <row r="94" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="50"/>
       <c r="B94" s="50"/>
       <c r="C94" s="50"/>
@@ -3892,9 +3811,8 @@
       <c r="U94" s="50"/>
       <c r="V94" s="50"/>
       <c r="W94" s="51"/>
-      <c r="X94"/>
-    </row>
-    <row r="95" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="50"/>
       <c r="B95" s="50"/>
       <c r="C95" s="50"/>
@@ -3918,9 +3836,8 @@
       <c r="U95" s="50"/>
       <c r="V95" s="50"/>
       <c r="W95" s="51"/>
-      <c r="X95"/>
-    </row>
-    <row r="96" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="50"/>
       <c r="B96" s="50"/>
       <c r="C96" s="50"/>
@@ -3944,9 +3861,8 @@
       <c r="U96" s="50"/>
       <c r="V96" s="50"/>
       <c r="W96" s="51"/>
-      <c r="X96"/>
-    </row>
-    <row r="97" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="50"/>
       <c r="B97" s="50"/>
       <c r="C97" s="50"/>
@@ -3970,9 +3886,8 @@
       <c r="U97" s="50"/>
       <c r="V97" s="50"/>
       <c r="W97" s="51"/>
-      <c r="X97"/>
-    </row>
-    <row r="98" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="50"/>
       <c r="B98" s="50"/>
       <c r="C98" s="50"/>
@@ -3996,9 +3911,8 @@
       <c r="U98" s="50"/>
       <c r="V98" s="50"/>
       <c r="W98" s="51"/>
-      <c r="X98"/>
-    </row>
-    <row r="99" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="50"/>
       <c r="B99" s="50"/>
       <c r="C99" s="50"/>
@@ -4022,9 +3936,8 @@
       <c r="U99" s="50"/>
       <c r="V99" s="50"/>
       <c r="W99" s="51"/>
-      <c r="X99"/>
-    </row>
-    <row r="100" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="50"/>
       <c r="B100" s="50"/>
       <c r="C100" s="50"/>
@@ -4048,9 +3961,8 @@
       <c r="U100" s="50"/>
       <c r="V100" s="50"/>
       <c r="W100" s="51"/>
-      <c r="X100"/>
-    </row>
-    <row r="101" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="50"/>
       <c r="B101" s="50"/>
       <c r="C101" s="50"/>
@@ -4074,9 +3986,8 @@
       <c r="U101" s="50"/>
       <c r="V101" s="50"/>
       <c r="W101" s="51"/>
-      <c r="X101"/>
-    </row>
-    <row r="102" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="50"/>
       <c r="B102" s="50"/>
       <c r="C102" s="50"/>
@@ -4100,9 +4011,8 @@
       <c r="U102" s="50"/>
       <c r="V102" s="50"/>
       <c r="W102" s="51"/>
-      <c r="X102"/>
-    </row>
-    <row r="103" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="50"/>
       <c r="B103" s="50"/>
       <c r="C103" s="50"/>
@@ -4126,9 +4036,8 @@
       <c r="U103" s="50"/>
       <c r="V103" s="50"/>
       <c r="W103" s="51"/>
-      <c r="X103"/>
-    </row>
-    <row r="104" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="50"/>
       <c r="B104" s="50"/>
       <c r="C104" s="50"/>
@@ -4152,9 +4061,8 @@
       <c r="U104" s="50"/>
       <c r="V104" s="50"/>
       <c r="W104" s="51"/>
-      <c r="X104"/>
-    </row>
-    <row r="105" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="50"/>
       <c r="B105" s="50"/>
       <c r="C105" s="50"/>
@@ -4178,9 +4086,8 @@
       <c r="U105" s="50"/>
       <c r="V105" s="50"/>
       <c r="W105" s="51"/>
-      <c r="X105"/>
-    </row>
-    <row r="106" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="50"/>
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
@@ -4204,9 +4111,8 @@
       <c r="U106" s="50"/>
       <c r="V106" s="50"/>
       <c r="W106" s="51"/>
-      <c r="X106"/>
-    </row>
-    <row r="107" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="50"/>
       <c r="B107" s="50"/>
       <c r="C107" s="50"/>
@@ -4230,9 +4136,8 @@
       <c r="U107" s="50"/>
       <c r="V107" s="50"/>
       <c r="W107" s="51"/>
-      <c r="X107"/>
-    </row>
-    <row r="108" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="50"/>
       <c r="B108" s="50"/>
       <c r="C108" s="50"/>
@@ -4256,9 +4161,8 @@
       <c r="U108" s="50"/>
       <c r="V108" s="50"/>
       <c r="W108" s="51"/>
-      <c r="X108"/>
-    </row>
-    <row r="109" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="50"/>
       <c r="B109" s="50"/>
       <c r="C109" s="50"/>
@@ -4282,9 +4186,8 @@
       <c r="U109" s="50"/>
       <c r="V109" s="50"/>
       <c r="W109" s="51"/>
-      <c r="X109"/>
-    </row>
-    <row r="110" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="50"/>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -4308,9 +4211,8 @@
       <c r="U110" s="50"/>
       <c r="V110" s="50"/>
       <c r="W110" s="51"/>
-      <c r="X110"/>
-    </row>
-    <row r="111" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="50"/>
       <c r="B111" s="50"/>
       <c r="C111" s="50"/>
@@ -4334,9 +4236,8 @@
       <c r="U111" s="50"/>
       <c r="V111" s="50"/>
       <c r="W111" s="51"/>
-      <c r="X111"/>
-    </row>
-    <row r="112" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="50"/>
       <c r="B112" s="50"/>
       <c r="C112" s="50"/>
@@ -4360,9 +4261,8 @@
       <c r="U112" s="50"/>
       <c r="V112" s="50"/>
       <c r="W112" s="51"/>
-      <c r="X112"/>
-    </row>
-    <row r="113" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="50"/>
       <c r="B113" s="50"/>
       <c r="C113" s="50"/>
@@ -4386,9 +4286,8 @@
       <c r="U113" s="50"/>
       <c r="V113" s="50"/>
       <c r="W113" s="51"/>
-      <c r="X113"/>
-    </row>
-    <row r="114" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="50"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -4412,9 +4311,8 @@
       <c r="U114" s="50"/>
       <c r="V114" s="50"/>
       <c r="W114" s="51"/>
-      <c r="X114"/>
-    </row>
-    <row r="115" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="50"/>
       <c r="B115" s="50"/>
       <c r="C115" s="50"/>
@@ -4438,9 +4336,8 @@
       <c r="U115" s="50"/>
       <c r="V115" s="50"/>
       <c r="W115" s="51"/>
-      <c r="X115"/>
-    </row>
-    <row r="116" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="50"/>
       <c r="B116" s="50"/>
       <c r="C116" s="50"/>
@@ -4464,9 +4361,8 @@
       <c r="U116" s="50"/>
       <c r="V116" s="50"/>
       <c r="W116" s="51"/>
-      <c r="X116"/>
-    </row>
-    <row r="117" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="50"/>
       <c r="B117" s="50"/>
       <c r="C117" s="50"/>
@@ -4490,9 +4386,8 @@
       <c r="U117" s="50"/>
       <c r="V117" s="50"/>
       <c r="W117" s="51"/>
-      <c r="X117"/>
-    </row>
-    <row r="118" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="50"/>
       <c r="B118" s="50"/>
       <c r="C118" s="50"/>
@@ -4516,9 +4411,8 @@
       <c r="U118" s="50"/>
       <c r="V118" s="50"/>
       <c r="W118" s="51"/>
-      <c r="X118"/>
-    </row>
-    <row r="119" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="50"/>
       <c r="B119" s="50"/>
       <c r="C119" s="50"/>
@@ -4542,9 +4436,8 @@
       <c r="U119" s="50"/>
       <c r="V119" s="50"/>
       <c r="W119" s="51"/>
-      <c r="X119"/>
-    </row>
-    <row r="120" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="50"/>
       <c r="B120" s="50"/>
       <c r="C120" s="50"/>
@@ -4568,9 +4461,8 @@
       <c r="U120" s="50"/>
       <c r="V120" s="50"/>
       <c r="W120" s="51"/>
-      <c r="X120"/>
-    </row>
-    <row r="121" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="50"/>
       <c r="B121" s="50"/>
       <c r="C121" s="50"/>
@@ -4594,9 +4486,8 @@
       <c r="U121" s="50"/>
       <c r="V121" s="50"/>
       <c r="W121" s="51"/>
-      <c r="X121"/>
-    </row>
-    <row r="122" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="50"/>
       <c r="B122" s="50"/>
       <c r="C122" s="50"/>
@@ -4620,9 +4511,8 @@
       <c r="U122" s="50"/>
       <c r="V122" s="50"/>
       <c r="W122" s="51"/>
-      <c r="X122"/>
-    </row>
-    <row r="123" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="50"/>
       <c r="B123" s="50"/>
       <c r="C123" s="50"/>
@@ -4646,9 +4536,8 @@
       <c r="U123" s="50"/>
       <c r="V123" s="50"/>
       <c r="W123" s="51"/>
-      <c r="X123"/>
-    </row>
-    <row r="124" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="50"/>
       <c r="B124" s="50"/>
       <c r="C124" s="50"/>
@@ -4672,9 +4561,8 @@
       <c r="U124" s="50"/>
       <c r="V124" s="50"/>
       <c r="W124" s="51"/>
-      <c r="X124"/>
-    </row>
-    <row r="125" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="50"/>
       <c r="B125" s="50"/>
       <c r="C125" s="50"/>
@@ -4698,9 +4586,8 @@
       <c r="U125" s="50"/>
       <c r="V125" s="50"/>
       <c r="W125" s="51"/>
-      <c r="X125"/>
-    </row>
-    <row r="126" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="50"/>
       <c r="B126" s="50"/>
       <c r="C126" s="50"/>
@@ -4724,9 +4611,8 @@
       <c r="U126" s="50"/>
       <c r="V126" s="50"/>
       <c r="W126" s="51"/>
-      <c r="X126"/>
-    </row>
-    <row r="127" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="50"/>
       <c r="B127" s="50"/>
       <c r="C127" s="50"/>
@@ -4750,9 +4636,8 @@
       <c r="U127" s="50"/>
       <c r="V127" s="50"/>
       <c r="W127" s="51"/>
-      <c r="X127"/>
-    </row>
-    <row r="128" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="50"/>
       <c r="B128" s="50"/>
       <c r="C128" s="50"/>
@@ -4771,14 +4656,9 @@
       <c r="P128" s="50"/>
       <c r="Q128" s="52"/>
       <c r="R128" s="51"/>
-      <c r="S128" s="38"/>
-      <c r="T128" s="38"/>
-      <c r="U128" s="38"/>
-      <c r="V128" s="38"/>
       <c r="W128" s="51"/>
-      <c r="X128"/>
-    </row>
-    <row r="129" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="50"/>
       <c r="B129" s="50"/>
       <c r="C129" s="50"/>
@@ -4797,14 +4677,9 @@
       <c r="P129" s="50"/>
       <c r="Q129" s="52"/>
       <c r="R129" s="51"/>
-      <c r="S129" s="38"/>
-      <c r="T129" s="38"/>
-      <c r="U129" s="38"/>
-      <c r="V129" s="38"/>
       <c r="W129" s="51"/>
-      <c r="X129"/>
-    </row>
-    <row r="130" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="50"/>
       <c r="B130" s="50"/>
       <c r="C130" s="50"/>
@@ -4823,14 +4698,9 @@
       <c r="P130" s="50"/>
       <c r="Q130" s="52"/>
       <c r="R130" s="51"/>
-      <c r="S130" s="38"/>
-      <c r="T130" s="38"/>
-      <c r="U130" s="38"/>
-      <c r="V130" s="38"/>
       <c r="W130" s="51"/>
-      <c r="X130"/>
-    </row>
-    <row r="131" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="50"/>
       <c r="B131" s="50"/>
       <c r="C131" s="50"/>
@@ -4849,14 +4719,9 @@
       <c r="P131" s="50"/>
       <c r="Q131" s="52"/>
       <c r="R131" s="51"/>
-      <c r="S131" s="38"/>
-      <c r="T131" s="38"/>
-      <c r="U131" s="38"/>
-      <c r="V131" s="38"/>
       <c r="W131" s="51"/>
-      <c r="X131"/>
-    </row>
-    <row r="132" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="50"/>
       <c r="B132" s="50"/>
       <c r="C132" s="50"/>
@@ -4875,14 +4740,9 @@
       <c r="P132" s="50"/>
       <c r="Q132" s="52"/>
       <c r="R132" s="51"/>
-      <c r="S132" s="38"/>
-      <c r="T132" s="38"/>
-      <c r="U132" s="38"/>
-      <c r="V132" s="38"/>
       <c r="W132" s="51"/>
-      <c r="X132"/>
-    </row>
-    <row r="133" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="50"/>
       <c r="B133" s="50"/>
       <c r="C133" s="50"/>
@@ -4901,14 +4761,9 @@
       <c r="P133" s="50"/>
       <c r="Q133" s="52"/>
       <c r="R133" s="51"/>
-      <c r="S133" s="38"/>
-      <c r="T133" s="38"/>
-      <c r="U133" s="38"/>
-      <c r="V133" s="38"/>
       <c r="W133" s="51"/>
-      <c r="X133"/>
-    </row>
-    <row r="134" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="50"/>
       <c r="B134" s="50"/>
       <c r="C134" s="50"/>
@@ -4927,14 +4782,9 @@
       <c r="P134" s="50"/>
       <c r="Q134" s="52"/>
       <c r="R134" s="51"/>
-      <c r="S134" s="38"/>
-      <c r="T134" s="38"/>
-      <c r="U134" s="38"/>
-      <c r="V134" s="38"/>
       <c r="W134" s="51"/>
-      <c r="X134"/>
-    </row>
-    <row r="135" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="50"/>
       <c r="B135" s="50"/>
       <c r="C135" s="50"/>
@@ -4953,14 +4803,9 @@
       <c r="P135" s="50"/>
       <c r="Q135" s="52"/>
       <c r="R135" s="51"/>
-      <c r="S135" s="38"/>
-      <c r="T135" s="38"/>
-      <c r="U135" s="38"/>
-      <c r="V135" s="38"/>
       <c r="W135" s="51"/>
-      <c r="X135"/>
-    </row>
-    <row r="136" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="50"/>
       <c r="B136" s="50"/>
       <c r="C136" s="50"/>
@@ -4979,14 +4824,9 @@
       <c r="P136" s="50"/>
       <c r="Q136" s="52"/>
       <c r="R136" s="51"/>
-      <c r="S136" s="38"/>
-      <c r="T136" s="38"/>
-      <c r="U136" s="38"/>
-      <c r="V136" s="38"/>
       <c r="W136" s="51"/>
-      <c r="X136"/>
-    </row>
-    <row r="137" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="50"/>
       <c r="B137" s="50"/>
       <c r="C137" s="50"/>
@@ -5005,14 +4845,9 @@
       <c r="P137" s="50"/>
       <c r="Q137" s="52"/>
       <c r="R137" s="51"/>
-      <c r="S137" s="38"/>
-      <c r="T137" s="38"/>
-      <c r="U137" s="38"/>
-      <c r="V137" s="38"/>
       <c r="W137" s="51"/>
-      <c r="X137"/>
-    </row>
-    <row r="138" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="50"/>
       <c r="B138" s="50"/>
       <c r="C138" s="50"/>
@@ -5031,14 +4866,9 @@
       <c r="P138" s="50"/>
       <c r="Q138" s="52"/>
       <c r="R138" s="51"/>
-      <c r="S138" s="38"/>
-      <c r="T138" s="38"/>
-      <c r="U138" s="38"/>
-      <c r="V138" s="38"/>
       <c r="W138" s="51"/>
-      <c r="X138"/>
-    </row>
-    <row r="139" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="50"/>
       <c r="B139" s="50"/>
       <c r="C139" s="50"/>
@@ -5057,14 +4887,9 @@
       <c r="P139" s="50"/>
       <c r="Q139" s="52"/>
       <c r="R139" s="51"/>
-      <c r="S139" s="38"/>
-      <c r="T139" s="38"/>
-      <c r="U139" s="38"/>
-      <c r="V139" s="38"/>
       <c r="W139" s="51"/>
-      <c r="X139"/>
-    </row>
-    <row r="140" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="50"/>
       <c r="B140" s="50"/>
       <c r="C140" s="50"/>
@@ -5083,14 +4908,9 @@
       <c r="P140" s="50"/>
       <c r="Q140" s="52"/>
       <c r="R140" s="51"/>
-      <c r="S140" s="38"/>
-      <c r="T140" s="38"/>
-      <c r="U140" s="38"/>
-      <c r="V140" s="38"/>
       <c r="W140" s="51"/>
-      <c r="X140"/>
-    </row>
-    <row r="141" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="50"/>
       <c r="B141" s="50"/>
       <c r="C141" s="50"/>
@@ -5109,14 +4929,9 @@
       <c r="P141" s="50"/>
       <c r="Q141" s="52"/>
       <c r="R141" s="51"/>
-      <c r="S141" s="38"/>
-      <c r="T141" s="38"/>
-      <c r="U141" s="38"/>
-      <c r="V141" s="38"/>
       <c r="W141" s="51"/>
-      <c r="X141"/>
-    </row>
-    <row r="142" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="50"/>
       <c r="B142" s="50"/>
       <c r="C142" s="50"/>
@@ -5135,14 +4950,9 @@
       <c r="P142" s="50"/>
       <c r="Q142" s="52"/>
       <c r="R142" s="51"/>
-      <c r="S142" s="38"/>
-      <c r="T142" s="38"/>
-      <c r="U142" s="38"/>
-      <c r="V142" s="38"/>
       <c r="W142" s="51"/>
-      <c r="X142"/>
-    </row>
-    <row r="143" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="50"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -5161,14 +4971,9 @@
       <c r="P143" s="50"/>
       <c r="Q143" s="52"/>
       <c r="R143" s="51"/>
-      <c r="S143" s="38"/>
-      <c r="T143" s="38"/>
-      <c r="U143" s="38"/>
-      <c r="V143" s="38"/>
       <c r="W143" s="51"/>
-      <c r="X143"/>
-    </row>
-    <row r="144" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="50"/>
       <c r="B144" s="50"/>
       <c r="C144" s="50"/>
@@ -5187,14 +4992,9 @@
       <c r="P144" s="50"/>
       <c r="Q144" s="52"/>
       <c r="R144" s="51"/>
-      <c r="S144" s="38"/>
-      <c r="T144" s="38"/>
-      <c r="U144" s="38"/>
-      <c r="V144" s="38"/>
       <c r="W144" s="51"/>
-      <c r="X144"/>
-    </row>
-    <row r="145" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="50"/>
       <c r="B145" s="50"/>
       <c r="C145" s="50"/>
@@ -5213,14 +5013,9 @@
       <c r="P145" s="50"/>
       <c r="Q145" s="52"/>
       <c r="R145" s="51"/>
-      <c r="S145" s="38"/>
-      <c r="T145" s="38"/>
-      <c r="U145" s="38"/>
-      <c r="V145" s="38"/>
       <c r="W145" s="51"/>
-      <c r="X145"/>
-    </row>
-    <row r="146" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="50"/>
       <c r="B146" s="50"/>
       <c r="C146" s="50"/>
@@ -5239,14 +5034,9 @@
       <c r="P146" s="50"/>
       <c r="Q146" s="52"/>
       <c r="R146" s="51"/>
-      <c r="S146" s="38"/>
-      <c r="T146" s="38"/>
-      <c r="U146" s="38"/>
-      <c r="V146" s="38"/>
       <c r="W146" s="51"/>
-      <c r="X146"/>
-    </row>
-    <row r="147" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="50"/>
       <c r="B147" s="50"/>
       <c r="C147" s="50"/>
@@ -5265,14 +5055,9 @@
       <c r="P147" s="50"/>
       <c r="Q147" s="52"/>
       <c r="R147" s="51"/>
-      <c r="S147" s="38"/>
-      <c r="T147" s="38"/>
-      <c r="U147" s="38"/>
-      <c r="V147" s="38"/>
       <c r="W147" s="51"/>
-      <c r="X147"/>
-    </row>
-    <row r="148" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="50"/>
       <c r="B148" s="50"/>
       <c r="C148" s="50"/>
@@ -5291,14 +5076,9 @@
       <c r="P148" s="50"/>
       <c r="Q148" s="52"/>
       <c r="R148" s="51"/>
-      <c r="S148" s="38"/>
-      <c r="T148" s="38"/>
-      <c r="U148" s="38"/>
-      <c r="V148" s="38"/>
       <c r="W148" s="51"/>
-      <c r="X148"/>
-    </row>
-    <row r="149" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="50"/>
       <c r="B149" s="50"/>
       <c r="C149" s="50"/>
@@ -5317,14 +5097,9 @@
       <c r="P149" s="50"/>
       <c r="Q149" s="52"/>
       <c r="R149" s="51"/>
-      <c r="S149" s="38"/>
-      <c r="T149" s="38"/>
-      <c r="U149" s="38"/>
-      <c r="V149" s="38"/>
       <c r="W149" s="51"/>
-      <c r="X149"/>
-    </row>
-    <row r="150" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="50"/>
       <c r="B150" s="50"/>
       <c r="C150" s="50"/>
@@ -5343,14 +5118,9 @@
       <c r="P150" s="50"/>
       <c r="Q150" s="52"/>
       <c r="R150" s="51"/>
-      <c r="S150" s="38"/>
-      <c r="T150" s="38"/>
-      <c r="U150" s="38"/>
-      <c r="V150" s="38"/>
       <c r="W150" s="51"/>
-      <c r="X150"/>
-    </row>
-    <row r="151" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="50"/>
       <c r="B151" s="50"/>
       <c r="C151" s="50"/>
@@ -5369,14 +5139,9 @@
       <c r="P151" s="50"/>
       <c r="Q151" s="52"/>
       <c r="R151" s="51"/>
-      <c r="S151" s="38"/>
-      <c r="T151" s="38"/>
-      <c r="U151" s="38"/>
-      <c r="V151" s="38"/>
       <c r="W151" s="51"/>
-      <c r="X151"/>
-    </row>
-    <row r="152" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="50"/>
       <c r="B152" s="50"/>
       <c r="C152" s="50"/>
@@ -5395,14 +5160,9 @@
       <c r="P152" s="50"/>
       <c r="Q152" s="52"/>
       <c r="R152" s="51"/>
-      <c r="S152" s="38"/>
-      <c r="T152" s="38"/>
-      <c r="U152" s="38"/>
-      <c r="V152" s="38"/>
       <c r="W152" s="51"/>
-      <c r="X152"/>
-    </row>
-    <row r="153" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="50"/>
       <c r="B153" s="50"/>
       <c r="C153" s="50"/>
@@ -5421,14 +5181,9 @@
       <c r="P153" s="50"/>
       <c r="Q153" s="52"/>
       <c r="R153" s="51"/>
-      <c r="S153" s="38"/>
-      <c r="T153" s="38"/>
-      <c r="U153" s="38"/>
-      <c r="V153" s="38"/>
       <c r="W153" s="51"/>
-      <c r="X153"/>
-    </row>
-    <row r="154" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="50"/>
       <c r="B154" s="50"/>
       <c r="C154" s="50"/>
@@ -5447,14 +5202,9 @@
       <c r="P154" s="50"/>
       <c r="Q154" s="52"/>
       <c r="R154" s="51"/>
-      <c r="S154" s="38"/>
-      <c r="T154" s="38"/>
-      <c r="U154" s="38"/>
-      <c r="V154" s="38"/>
       <c r="W154" s="51"/>
-      <c r="X154"/>
-    </row>
-    <row r="155" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="50"/>
       <c r="B155" s="50"/>
       <c r="C155" s="50"/>
@@ -5473,14 +5223,9 @@
       <c r="P155" s="50"/>
       <c r="Q155" s="52"/>
       <c r="R155" s="51"/>
-      <c r="S155" s="38"/>
-      <c r="T155" s="38"/>
-      <c r="U155" s="38"/>
-      <c r="V155" s="38"/>
       <c r="W155" s="51"/>
-      <c r="X155"/>
-    </row>
-    <row r="156" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="50"/>
       <c r="B156" s="50"/>
       <c r="C156" s="50"/>
@@ -5499,14 +5244,9 @@
       <c r="P156" s="50"/>
       <c r="Q156" s="52"/>
       <c r="R156" s="51"/>
-      <c r="S156" s="38"/>
-      <c r="T156" s="38"/>
-      <c r="U156" s="38"/>
-      <c r="V156" s="38"/>
       <c r="W156" s="51"/>
-      <c r="X156"/>
-    </row>
-    <row r="157" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="50"/>
       <c r="B157" s="50"/>
       <c r="C157" s="50"/>
@@ -5525,14 +5265,9 @@
       <c r="P157" s="50"/>
       <c r="Q157" s="52"/>
       <c r="R157" s="51"/>
-      <c r="S157" s="38"/>
-      <c r="T157" s="38"/>
-      <c r="U157" s="38"/>
-      <c r="V157" s="38"/>
       <c r="W157" s="51"/>
-      <c r="X157"/>
-    </row>
-    <row r="158" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="50"/>
       <c r="B158" s="50"/>
       <c r="C158" s="50"/>
@@ -5551,14 +5286,9 @@
       <c r="P158" s="50"/>
       <c r="Q158" s="52"/>
       <c r="R158" s="51"/>
-      <c r="S158" s="38"/>
-      <c r="T158" s="38"/>
-      <c r="U158" s="38"/>
-      <c r="V158" s="38"/>
       <c r="W158" s="51"/>
-      <c r="X158"/>
-    </row>
-    <row r="159" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="50"/>
       <c r="B159" s="50"/>
       <c r="C159" s="50"/>
@@ -5577,14 +5307,9 @@
       <c r="P159" s="50"/>
       <c r="Q159" s="52"/>
       <c r="R159" s="51"/>
-      <c r="S159" s="38"/>
-      <c r="T159" s="38"/>
-      <c r="U159" s="38"/>
-      <c r="V159" s="38"/>
       <c r="W159" s="51"/>
-      <c r="X159"/>
-    </row>
-    <row r="160" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="50"/>
       <c r="B160" s="50"/>
       <c r="C160" s="50"/>
@@ -5603,14 +5328,9 @@
       <c r="P160" s="50"/>
       <c r="Q160" s="52"/>
       <c r="R160" s="51"/>
-      <c r="S160" s="38"/>
-      <c r="T160" s="38"/>
-      <c r="U160" s="38"/>
-      <c r="V160" s="38"/>
       <c r="W160" s="51"/>
-      <c r="X160"/>
-    </row>
-    <row r="161" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="50"/>
       <c r="B161" s="50"/>
       <c r="C161" s="50"/>
@@ -5629,14 +5349,9 @@
       <c r="P161" s="50"/>
       <c r="Q161" s="52"/>
       <c r="R161" s="51"/>
-      <c r="S161" s="38"/>
-      <c r="T161" s="38"/>
-      <c r="U161" s="38"/>
-      <c r="V161" s="38"/>
       <c r="W161" s="51"/>
-      <c r="X161"/>
-    </row>
-    <row r="162" spans="1:16384" s="1" customFormat="1">
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="50"/>
       <c r="B162" s="50"/>
       <c r="C162" s="50"/>
@@ -5655,168 +5370,7 @@
       <c r="P162" s="50"/>
       <c r="Q162" s="52"/>
       <c r="R162" s="51"/>
-      <c r="S162" s="38"/>
-      <c r="T162" s="38"/>
-      <c r="U162" s="38"/>
-      <c r="V162" s="38"/>
       <c r="W162" s="51"/>
-      <c r="X162"/>
-    </row>
-    <row r="163" spans="1:16384" s="1" customFormat="1">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="37"/>
-      <c r="K163" s="37"/>
-      <c r="L163" s="36"/>
-      <c r="M163" s="36"/>
-      <c r="N163" s="36"/>
-      <c r="O163" s="36"/>
-      <c r="P163" s="37"/>
-      <c r="Q163" s="37"/>
-      <c r="R163" s="37"/>
-      <c r="S163" s="38"/>
-      <c r="T163" s="38"/>
-      <c r="U163" s="38"/>
-      <c r="V163" s="38"/>
-      <c r="W163" s="37"/>
-      <c r="X163"/>
-    </row>
-    <row r="164" spans="1:16384" s="1" customFormat="1">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
-      <c r="L164" s="36"/>
-      <c r="M164" s="36"/>
-      <c r="N164" s="36"/>
-      <c r="O164" s="36"/>
-      <c r="P164" s="37"/>
-      <c r="Q164" s="37"/>
-      <c r="R164" s="37"/>
-      <c r="S164" s="38"/>
-      <c r="T164" s="38"/>
-      <c r="U164" s="38"/>
-      <c r="V164" s="38"/>
-      <c r="W164" s="37"/>
-      <c r="X164"/>
-    </row>
-    <row r="165" spans="1:16384" s="1" customFormat="1">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="37"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
-      <c r="L165" s="36"/>
-      <c r="M165" s="36"/>
-      <c r="N165" s="36"/>
-      <c r="O165" s="36"/>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="37"/>
-      <c r="R165" s="37"/>
-      <c r="S165" s="38"/>
-      <c r="T165" s="38"/>
-      <c r="U165" s="38"/>
-      <c r="V165" s="38"/>
-      <c r="W165" s="37"/>
-      <c r="X165"/>
-    </row>
-    <row r="166" spans="1:16384" s="1" customFormat="1">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="37"/>
-      <c r="L166" s="36"/>
-      <c r="M166" s="36"/>
-      <c r="N166" s="36"/>
-      <c r="O166" s="36"/>
-      <c r="P166" s="37"/>
-      <c r="Q166" s="37"/>
-      <c r="R166" s="37"/>
-      <c r="S166" s="38"/>
-      <c r="T166" s="38"/>
-      <c r="U166" s="38"/>
-      <c r="V166" s="38"/>
-      <c r="W166" s="37"/>
-      <c r="X166"/>
-    </row>
-    <row r="167" spans="1:16384" s="1" customFormat="1">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="37"/>
-      <c r="L167" s="36"/>
-      <c r="M167" s="36"/>
-      <c r="N167" s="36"/>
-      <c r="O167" s="36"/>
-      <c r="P167" s="37"/>
-      <c r="Q167" s="37"/>
-      <c r="R167" s="37"/>
-      <c r="S167" s="38"/>
-      <c r="T167" s="38"/>
-      <c r="U167" s="38"/>
-      <c r="V167" s="38"/>
-      <c r="W167" s="37"/>
-      <c r="X167"/>
-    </row>
-    <row r="168" spans="1:16384" s="1" customFormat="1">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="36"/>
-      <c r="M168" s="36"/>
-      <c r="N168" s="36"/>
-      <c r="O168" s="36"/>
-      <c r="P168" s="37"/>
-      <c r="Q168" s="37"/>
-      <c r="R168" s="37"/>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38"/>
-      <c r="V168" s="38"/>
-      <c r="W168" s="37"/>
-      <c r="X168"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -5855,8 +5409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -5938,10 +5492,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1"/>
-    <row r="3" spans="1:18" customFormat="1"/>
-    <row r="4" spans="1:18" customFormat="1"/>
-    <row r="5" spans="1:18" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5949,7 +5499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6150,8 +5700,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A4:XFD15"/>
@@ -6172,7 +5722,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:13">
       <c r="A1" s="76" t="s">
         <v>54</v>
       </c>
@@ -6189,7 +5739,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" spans="1:13">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -6204,7 +5754,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:16384" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -6245,18 +5795,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" customFormat="1"/>
-    <row r="5" spans="1:16384" customFormat="1"/>
-    <row r="6" spans="1:16384" customFormat="1"/>
-    <row r="7" spans="1:16384" customFormat="1"/>
-    <row r="8" spans="1:16384" customFormat="1"/>
-    <row r="9" spans="1:16384" customFormat="1"/>
-    <row r="10" spans="1:16384" customFormat="1"/>
-    <row r="11" spans="1:16384" customFormat="1"/>
-    <row r="12" spans="1:16384" customFormat="1"/>
-    <row r="13" spans="1:16384" customFormat="1"/>
-    <row r="14" spans="1:16384" customFormat="1"/>
-    <row r="15" spans="1:16384" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
@@ -6267,8 +5805,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD16"/>
@@ -6289,7 +5827,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:13">
       <c r="A1" s="76" t="s">
         <v>54</v>
       </c>
@@ -6306,7 +5844,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" spans="1:13">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -6321,7 +5859,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:16384" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -6362,19 +5900,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" customFormat="1"/>
-    <row r="5" spans="1:16384" customFormat="1"/>
-    <row r="6" spans="1:16384" customFormat="1"/>
-    <row r="7" spans="1:16384" customFormat="1"/>
-    <row r="8" spans="1:16384" customFormat="1"/>
-    <row r="9" spans="1:16384" customFormat="1"/>
-    <row r="10" spans="1:16384" customFormat="1"/>
-    <row r="11" spans="1:16384" customFormat="1"/>
-    <row r="12" spans="1:16384" customFormat="1"/>
-    <row r="13" spans="1:16384" customFormat="1"/>
-    <row r="14" spans="1:16384" customFormat="1"/>
-    <row r="15" spans="1:16384" customFormat="1"/>
-    <row r="16" spans="1:16384" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
@@ -6385,8 +5910,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD16"/>
@@ -6407,7 +5932,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:13">
       <c r="A1" s="76" t="s">
         <v>54</v>
       </c>
@@ -6424,7 +5949,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" spans="1:13">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -6439,7 +5964,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:16384" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -6480,19 +6005,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" customFormat="1"/>
-    <row r="5" spans="1:16384" customFormat="1"/>
-    <row r="6" spans="1:16384" customFormat="1"/>
-    <row r="7" spans="1:16384" customFormat="1"/>
-    <row r="8" spans="1:16384" customFormat="1"/>
-    <row r="9" spans="1:16384" customFormat="1"/>
-    <row r="10" spans="1:16384" customFormat="1"/>
-    <row r="11" spans="1:16384" customFormat="1"/>
-    <row r="12" spans="1:16384" customFormat="1"/>
-    <row r="13" spans="1:16384" customFormat="1"/>
-    <row r="14" spans="1:16384" customFormat="1"/>
-    <row r="15" spans="1:16384" customFormat="1"/>
-    <row r="16" spans="1:16384" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
@@ -6503,7 +6015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6819,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
